--- a/results/results_OT/nonnoisy_sortinfo_original.xlsx
+++ b/results/results_OT/nonnoisy_sortinfo_original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esjou\Dropbox\linguist\Jou\Generals\Generals02\code\clean_test\results\original_backup_postsort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\projects\2021_RIP\Generals02\code\economy_RIPGLA\results\results_OT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79FC14-E3BA-4E15-B043-AC189AFFD2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36460467-F50B-49B7-B2EA-E9EAA38F7AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nonnoisy_sortinfo - 복사본" sheetId="1" r:id="rId1"/>
+    <sheet name="nonnoisy_sortinfo_original - 복사" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'nonnoisy_sortinfo - 복사본'!$A$1:$C$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'nonnoisy_sortinfo_original - 복사'!$A$1:$C$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="75">
-  <si>
-    <t>hypo01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="73">
+  <si>
+    <t>hypo03</t>
   </si>
   <si>
     <t>success</t>
@@ -34,12 +34,6 @@
     <t>fail</t>
   </si>
   <si>
-    <t>hypo02</t>
-  </si>
-  <si>
-    <t>hypo03</t>
-  </si>
-  <si>
     <t>hypo04</t>
   </si>
   <si>
@@ -235,23 +229,23 @@
     <t>hypo68</t>
   </si>
   <si>
-    <t>language</t>
+    <t>LANG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>success?</t>
+    <t>SORT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
+    <t>COUNT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Avg. success</t>
+    <t>MEAN SUCCESS COUNT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Std. dev</t>
+    <t>STDEV SUCCESS COUNT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,1546 +1198,1503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(C2:C67)</f>
+        <v>23.030303030303031</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.STDEV.P(C2:C67)</f>
+        <v>9.6624385167508731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(C70:C137)</f>
-        <v>23.205882352941178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4">
-        <f>_xlfn.STDEV.P(C70:C137)</f>
-        <v>9.5741054313021117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
       <c r="C68">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
         <v>0</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81">
         <v>9</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96">
         <v>16</v>
       </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103">
         <v>27</v>
       </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112">
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>66</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>67</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
-        <v>68</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>69</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C137" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:C137">
-      <sortCondition ref="B1:B137"/>
+  <autoFilter ref="A1:C133" xr:uid="{C9649E0D-5796-46DE-8467-A9D859839C46}">
+    <sortState ref="A2:C133">
+      <sortCondition descending="1" ref="B1:B133"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results_OT/nonnoisy_sortinfo_original.xlsx
+++ b/results/results_OT/nonnoisy_sortinfo_original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\projects\2021_RIP\Generals02\code\economy_RIPGLA\results\results_OT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\linguist\Jou\projects\2021_RIP\Generals02\code\Economy_RIPGLA-master\results\results_OT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36460467-F50B-49B7-B2EA-E9EAA38F7AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6673B3D3-1602-4043-B26B-423766AFAB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,12 +223,6 @@
     <t>hypo66</t>
   </si>
   <si>
-    <t>hypo67</t>
-  </si>
-  <si>
-    <t>hypo68</t>
-  </si>
-  <si>
     <t>LANG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -246,6 +240,14 @@
   </si>
   <si>
     <t>STDEV SUCCESS COUNT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypo01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypo02</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1203,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1212,30 +1214,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <f>AVERAGE(C2:C67)</f>
@@ -1248,29 +1250,29 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1281,84 +1283,84 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1369,51 +1371,51 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1424,73 +1426,73 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1501,161 +1503,161 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -1666,7 +1668,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -1677,51 +1679,51 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1732,29 +1734,29 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1765,29 +1767,29 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -1798,62 +1800,62 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -1864,139 +1866,139 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
         <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2007,84 +2009,84 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2095,51 +2097,51 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -2150,73 +2152,73 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -2227,161 +2229,161 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -2392,7 +2394,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -2403,51 +2405,51 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
@@ -2458,29 +2460,29 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
       </c>
       <c r="C114">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -2491,29 +2493,29 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
       <c r="C117">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2524,62 +2526,62 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
       </c>
       <c r="C120">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -2590,101 +2592,101 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
